--- a/results/131019-V39.1-1311-2013_Beach_Stylers_-_Open-Pairs.xlsx
+++ b/results/131019-V39.1-1311-2013_Beach_Stylers_-_Open-Pairs.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Kolja\SkyDrive\Dokumente\Frisbee\Rankings\Turniere-berechnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E570533-75E6-4FBF-ABB4-2D88AB2C3B1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V39.1 - Pairs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">'V39.1 - Pairs'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V39.1 - Pairs'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,14 +28,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HannemanK001</author>
     <author>Kolja Hannemann</author>
     <author>Kolja</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0" shapeId="0">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="1" shapeId="0">
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="2" shapeId="0">
+    <comment ref="F16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -252,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="2" shapeId="0">
+    <comment ref="G16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="2" shapeId="0">
+    <comment ref="H16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="2" shapeId="0">
+    <comment ref="M16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -316,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N16" authorId="2" shapeId="0">
+    <comment ref="N16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q17" authorId="2" shapeId="0">
+    <comment ref="Q17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="2" shapeId="0">
+    <comment ref="R17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -358,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S17" authorId="2" shapeId="0">
+    <comment ref="S17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -386,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H43" authorId="0" shapeId="0">
+    <comment ref="H43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="0" shapeId="0">
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -424,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H65" authorId="0" shapeId="0">
+    <comment ref="H65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -448,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="1" shapeId="0">
+    <comment ref="E66" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -676,13 +677,13 @@
     <t>Event:</t>
   </si>
   <si>
-    <t>19.-20.10.2013</t>
+    <t>19.10.2013-20.10.2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2043,6 +2044,146 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -2124,42 +2265,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -2180,113 +2285,9 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2571,17 +2572,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle11">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:M5"/>
+      <selection activeCell="I4" sqref="I4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
@@ -2619,13 +2620,13 @@
       <c r="F2" s="117"/>
       <c r="G2" s="117"/>
       <c r="H2" s="117"/>
-      <c r="I2" s="126" t="s">
+      <c r="I2" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="128"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="163"/>
       <c r="N2" s="1"/>
       <c r="T2" s="108"/>
     </row>
@@ -2639,13 +2640,13 @@
       <c r="F3" s="111"/>
       <c r="G3" s="111"/>
       <c r="H3" s="111"/>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="130"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="165"/>
       <c r="N3" s="1"/>
       <c r="T3" s="108" t="s">
         <v>64</v>
@@ -2664,13 +2665,13 @@
       <c r="F4" s="113"/>
       <c r="G4" s="113"/>
       <c r="H4" s="113"/>
-      <c r="I4" s="131" t="s">
+      <c r="I4" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="133"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="168"/>
       <c r="N4" s="1"/>
       <c r="T4" s="108">
         <v>2</v>
@@ -2689,13 +2690,13 @@
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="134"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="169"/>
       <c r="N5" s="1"/>
       <c r="T5" s="108"/>
     </row>
@@ -2709,13 +2710,13 @@
       <c r="F6" s="113"/>
       <c r="G6" s="113"/>
       <c r="H6" s="113"/>
-      <c r="I6" s="135">
+      <c r="I6" s="170">
         <v>20</v>
       </c>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="137"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="172"/>
       <c r="N6" s="1"/>
       <c r="T6" s="108" t="s">
         <v>58</v>
@@ -2737,13 +2738,13 @@
       <c r="F7" s="111"/>
       <c r="G7" s="111"/>
       <c r="H7" s="111"/>
-      <c r="I7" s="138">
-        <v>1</v>
-      </c>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="134"/>
+      <c r="I7" s="173">
+        <v>1</v>
+      </c>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="169"/>
       <c r="N7" s="1"/>
       <c r="T7" s="108" t="s">
         <v>56</v>
@@ -2762,15 +2763,15 @@
       <c r="F8" s="113"/>
       <c r="G8" s="113"/>
       <c r="H8" s="113"/>
-      <c r="I8" s="139" t="s">
+      <c r="I8" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132" t="s">
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="168"/>
       <c r="N8" s="1"/>
       <c r="T8" s="108" t="s">
         <v>53</v>
@@ -2786,13 +2787,13 @@
       <c r="F9" s="111"/>
       <c r="G9" s="111"/>
       <c r="H9" s="111"/>
-      <c r="I9" s="119" t="s">
+      <c r="I9" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="134"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="169"/>
       <c r="N9" s="1"/>
       <c r="T9" s="108" t="s">
         <v>0</v>
@@ -2808,11 +2809,11 @@
       <c r="F10" s="113"/>
       <c r="G10" s="113"/>
       <c r="H10" s="113"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="150"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="176"/>
       <c r="N10" s="1"/>
       <c r="T10" s="108"/>
     </row>
@@ -2826,13 +2827,13 @@
       <c r="F11" s="111"/>
       <c r="G11" s="111"/>
       <c r="H11" s="111"/>
-      <c r="I11" s="119">
+      <c r="I11" s="154">
         <v>1311</v>
       </c>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="134"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="169"/>
       <c r="N11" s="1"/>
       <c r="T11" s="108"/>
     </row>
@@ -2846,29 +2847,29 @@
       <c r="F12" s="109"/>
       <c r="G12" s="109"/>
       <c r="H12" s="109"/>
-      <c r="I12" s="151">
+      <c r="I12" s="177">
         <v>1511</v>
       </c>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="153"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="178"/>
+      <c r="M12" s="179"/>
       <c r="N12" s="1"/>
       <c r="T12" s="108"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="125"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="160"/>
       <c r="N13" s="1"/>
       <c r="T13" s="108"/>
     </row>
@@ -2896,9 +2897,9 @@
       <c r="M15" s="76"/>
       <c r="N15" s="75"/>
       <c r="O15" s="74"/>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="141"/>
-      <c r="S15" s="142"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="124"/>
       <c r="T15" s="5">
         <v>8</v>
       </c>
@@ -2942,11 +2943,11 @@
       <c r="N16" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="143" t="s">
+      <c r="Q16" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="R16" s="144"/>
-      <c r="S16" s="145"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="127"/>
       <c r="T16" s="5"/>
       <c r="U16" s="92" t="s">
         <v>46</v>
@@ -2989,7 +2990,7 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="146">
+      <c r="B18" s="119">
         <v>1</v>
       </c>
       <c r="C18" s="48">
@@ -3048,7 +3049,7 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="147"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="36">
         <v>1</v>
       </c>
@@ -3105,7 +3106,7 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="148"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="21">
         <v>1</v>
       </c>
@@ -3160,7 +3161,7 @@
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="146">
+      <c r="B21" s="119">
         <v>2</v>
       </c>
       <c r="C21" s="48">
@@ -3219,7 +3220,7 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="147"/>
+      <c r="B22" s="120"/>
       <c r="C22" s="36">
         <v>2</v>
       </c>
@@ -3276,7 +3277,7 @@
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="148"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="21">
         <v>2</v>
       </c>
@@ -3331,7 +3332,7 @@
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="146">
+      <c r="B24" s="119">
         <v>3</v>
       </c>
       <c r="C24" s="48">
@@ -3390,7 +3391,7 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="147"/>
+      <c r="B25" s="120"/>
       <c r="C25" s="36">
         <v>3</v>
       </c>
@@ -3447,7 +3448,7 @@
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="148"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="21">
         <v>3</v>
       </c>
@@ -3502,7 +3503,7 @@
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="146">
+      <c r="B27" s="119">
         <v>4</v>
       </c>
       <c r="C27" s="48">
@@ -3561,7 +3562,7 @@
       <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="147"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="36">
         <v>4</v>
       </c>
@@ -3618,7 +3619,7 @@
       <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="148"/>
+      <c r="B29" s="121"/>
       <c r="C29" s="21">
         <v>4</v>
       </c>
@@ -3673,7 +3674,7 @@
       <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="146">
+      <c r="B30" s="119">
         <v>5</v>
       </c>
       <c r="C30" s="48">
@@ -3732,7 +3733,7 @@
       <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="147"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="36">
         <v>5</v>
       </c>
@@ -3789,7 +3790,7 @@
       <c r="Y31" s="3"/>
     </row>
     <row r="32" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="148"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="21">
         <v>5</v>
       </c>
@@ -3844,7 +3845,7 @@
       <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="2:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="146">
+      <c r="B33" s="119">
         <v>6</v>
       </c>
       <c r="C33" s="48">
@@ -3903,7 +3904,7 @@
       <c r="Y33" s="3"/>
     </row>
     <row r="34" spans="2:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="147"/>
+      <c r="B34" s="120"/>
       <c r="C34" s="36">
         <v>6</v>
       </c>
@@ -3960,7 +3961,7 @@
       <c r="Y34" s="3"/>
     </row>
     <row r="35" spans="2:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="148"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="21">
         <v>6</v>
       </c>
@@ -4015,7 +4016,7 @@
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="2:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="146">
+      <c r="B36" s="119">
         <v>7</v>
       </c>
       <c r="C36" s="48">
@@ -4074,7 +4075,7 @@
       <c r="Y36" s="3"/>
     </row>
     <row r="37" spans="2:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="147"/>
+      <c r="B37" s="120"/>
       <c r="C37" s="36">
         <v>7</v>
       </c>
@@ -4131,7 +4132,7 @@
       <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="2:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="148"/>
+      <c r="B38" s="121"/>
       <c r="C38" s="21">
         <v>7</v>
       </c>
@@ -4186,7 +4187,7 @@
       <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="2:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="146">
+      <c r="B39" s="119">
         <v>8</v>
       </c>
       <c r="C39" s="48">
@@ -4245,7 +4246,7 @@
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="2:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="147"/>
+      <c r="B40" s="120"/>
       <c r="C40" s="36">
         <v>8</v>
       </c>
@@ -4302,7 +4303,7 @@
       <c r="Y40" s="3"/>
     </row>
     <row r="41" spans="2:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="148"/>
+      <c r="B41" s="121"/>
       <c r="C41" s="21">
         <v>8</v>
       </c>
@@ -4397,9 +4398,9 @@
       <c r="N43" s="75"/>
       <c r="O43" s="74"/>
       <c r="P43" s="73"/>
-      <c r="Q43" s="140"/>
-      <c r="R43" s="141"/>
-      <c r="S43" s="142"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="123"/>
+      <c r="S43" s="124"/>
       <c r="T43" s="5">
         <v>5</v>
       </c>
@@ -4407,116 +4408,116 @@
       <c r="Y43" s="3"/>
     </row>
     <row r="44" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="169" t="s">
+      <c r="B44" s="145" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="63"/>
       <c r="D44" s="63"/>
-      <c r="E44" s="172" t="s">
+      <c r="E44" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="154" t="s">
+      <c r="F44" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="154" t="s">
+      <c r="G44" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="177" t="s">
+      <c r="H44" s="151" t="s">
         <v>22</v>
       </c>
       <c r="I44" s="94"/>
-      <c r="J44" s="169" t="s">
+      <c r="J44" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="K44" s="154" t="s">
+      <c r="K44" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="L44" s="154"/>
-      <c r="M44" s="154" t="s">
-        <v>1</v>
-      </c>
-      <c r="N44" s="157" t="s">
+      <c r="L44" s="128"/>
+      <c r="M44" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="N44" s="133" t="s">
         <v>19</v>
       </c>
       <c r="O44" s="74"/>
       <c r="P44" s="73"/>
-      <c r="Q44" s="160" t="s">
+      <c r="Q44" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="R44" s="161"/>
-      <c r="S44" s="162"/>
+      <c r="R44" s="137"/>
+      <c r="S44" s="138"/>
       <c r="W44" s="4"/>
       <c r="Y44" s="3"/>
     </row>
     <row r="45" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="170"/>
+      <c r="B45" s="146"/>
       <c r="C45" s="95"/>
       <c r="D45" s="95"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="173"/>
-      <c r="H45" s="158"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="149"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="134"/>
       <c r="I45" s="94"/>
-      <c r="J45" s="170"/>
-      <c r="K45" s="173" t="s">
+      <c r="J45" s="146"/>
+      <c r="K45" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="L45" s="178"/>
-      <c r="M45" s="155"/>
-      <c r="N45" s="158"/>
+      <c r="L45" s="152"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="134"/>
       <c r="O45" s="74"/>
       <c r="P45" s="73"/>
-      <c r="Q45" s="163"/>
-      <c r="R45" s="164"/>
-      <c r="S45" s="165"/>
+      <c r="Q45" s="139"/>
+      <c r="R45" s="140"/>
+      <c r="S45" s="141"/>
       <c r="T45" s="5"/>
       <c r="W45" s="4"/>
       <c r="Y45" s="3"/>
     </row>
     <row r="46" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="170"/>
+      <c r="B46" s="146"/>
       <c r="C46" s="95"/>
       <c r="D46" s="95"/>
-      <c r="E46" s="173"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="173"/>
-      <c r="H46" s="158"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="149"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="134"/>
       <c r="I46" s="94"/>
-      <c r="J46" s="170"/>
-      <c r="K46" s="173" t="s">
+      <c r="J46" s="146"/>
+      <c r="K46" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="L46" s="178"/>
-      <c r="M46" s="155"/>
-      <c r="N46" s="158"/>
+      <c r="L46" s="152"/>
+      <c r="M46" s="131"/>
+      <c r="N46" s="134"/>
       <c r="O46" s="74"/>
       <c r="P46" s="73"/>
-      <c r="Q46" s="163"/>
-      <c r="R46" s="164"/>
-      <c r="S46" s="165"/>
+      <c r="Q46" s="139"/>
+      <c r="R46" s="140"/>
+      <c r="S46" s="141"/>
       <c r="T46" s="5"/>
       <c r="W46" s="4"/>
       <c r="Y46" s="3"/>
     </row>
     <row r="47" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="171"/>
+      <c r="B47" s="147"/>
       <c r="C47" s="93"/>
       <c r="D47" s="93"/>
-      <c r="E47" s="174"/>
-      <c r="F47" s="176"/>
-      <c r="G47" s="174"/>
-      <c r="H47" s="159"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="135"/>
       <c r="I47" s="59"/>
-      <c r="J47" s="171"/>
-      <c r="K47" s="174" t="s">
+      <c r="J47" s="147"/>
+      <c r="K47" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="L47" s="179"/>
-      <c r="M47" s="156"/>
-      <c r="N47" s="159"/>
-      <c r="Q47" s="166"/>
-      <c r="R47" s="167"/>
-      <c r="S47" s="168"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="135"/>
+      <c r="Q47" s="142"/>
+      <c r="R47" s="143"/>
+      <c r="S47" s="144"/>
       <c r="T47" s="5"/>
       <c r="W47" s="4"/>
       <c r="Y47" s="3"/>
@@ -4553,7 +4554,7 @@
       </c>
     </row>
     <row r="49" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="146">
+      <c r="B49" s="119">
         <v>1</v>
       </c>
       <c r="C49" s="48">
@@ -4616,7 +4617,7 @@
       </c>
     </row>
     <row r="50" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="147"/>
+      <c r="B50" s="120"/>
       <c r="C50" s="36">
         <v>1</v>
       </c>
@@ -4674,7 +4675,7 @@
       </c>
     </row>
     <row r="51" spans="2:27" s="73" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="148"/>
+      <c r="B51" s="121"/>
       <c r="C51" s="21">
         <v>1</v>
       </c>
@@ -4735,7 +4736,7 @@
       <c r="AA51" s="90"/>
     </row>
     <row r="52" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="146">
+      <c r="B52" s="119">
         <v>2</v>
       </c>
       <c r="C52" s="48">
@@ -4798,7 +4799,7 @@
       </c>
     </row>
     <row r="53" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="147"/>
+      <c r="B53" s="120"/>
       <c r="C53" s="36">
         <v>2</v>
       </c>
@@ -4856,7 +4857,7 @@
       </c>
     </row>
     <row r="54" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="148"/>
+      <c r="B54" s="121"/>
       <c r="C54" s="21">
         <v>2</v>
       </c>
@@ -4912,7 +4913,7 @@
       </c>
     </row>
     <row r="55" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="146">
+      <c r="B55" s="119">
         <v>3</v>
       </c>
       <c r="C55" s="48">
@@ -4975,7 +4976,7 @@
       </c>
     </row>
     <row r="56" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="147"/>
+      <c r="B56" s="120"/>
       <c r="C56" s="36">
         <v>3</v>
       </c>
@@ -5033,7 +5034,7 @@
       </c>
     </row>
     <row r="57" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="148"/>
+      <c r="B57" s="121"/>
       <c r="C57" s="21">
         <v>3</v>
       </c>
@@ -5089,7 +5090,7 @@
       </c>
     </row>
     <row r="58" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="146">
+      <c r="B58" s="119">
         <v>4</v>
       </c>
       <c r="C58" s="48">
@@ -5152,7 +5153,7 @@
       </c>
     </row>
     <row r="59" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="147"/>
+      <c r="B59" s="120"/>
       <c r="C59" s="36">
         <v>4</v>
       </c>
@@ -5210,7 +5211,7 @@
       </c>
     </row>
     <row r="60" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="148"/>
+      <c r="B60" s="121"/>
       <c r="C60" s="21">
         <v>4</v>
       </c>
@@ -5266,7 +5267,7 @@
       </c>
     </row>
     <row r="61" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="146">
+      <c r="B61" s="119">
         <v>5</v>
       </c>
       <c r="C61" s="48">
@@ -5329,7 +5330,7 @@
       </c>
     </row>
     <row r="62" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="147"/>
+      <c r="B62" s="120"/>
       <c r="C62" s="36">
         <v>5</v>
       </c>
@@ -5387,7 +5388,7 @@
       </c>
     </row>
     <row r="63" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="148"/>
+      <c r="B63" s="121"/>
       <c r="C63" s="21">
         <v>5</v>
       </c>
@@ -5488,9 +5489,9 @@
       <c r="N65" s="75"/>
       <c r="O65" s="74"/>
       <c r="P65" s="73"/>
-      <c r="Q65" s="140"/>
-      <c r="R65" s="141"/>
-      <c r="S65" s="142"/>
+      <c r="Q65" s="122"/>
+      <c r="R65" s="123"/>
+      <c r="S65" s="124"/>
       <c r="T65" s="5">
         <v>5</v>
       </c>
@@ -5530,11 +5531,11 @@
       <c r="N66" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q66" s="143" t="s">
+      <c r="Q66" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="R66" s="144"/>
-      <c r="S66" s="145"/>
+      <c r="R66" s="126"/>
+      <c r="S66" s="127"/>
       <c r="T66" s="5"/>
       <c r="W66" s="4"/>
       <c r="Y66" s="3"/>
@@ -5569,7 +5570,7 @@
     </row>
     <row r="68" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="146">
+      <c r="B68" s="119">
         <v>1</v>
       </c>
       <c r="C68" s="48">
@@ -5633,7 +5634,7 @@
     </row>
     <row r="69" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="22"/>
-      <c r="B69" s="147"/>
+      <c r="B69" s="120"/>
       <c r="C69" s="36">
         <v>1</v>
       </c>
@@ -5692,7 +5693,7 @@
     </row>
     <row r="70" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
-      <c r="B70" s="148"/>
+      <c r="B70" s="121"/>
       <c r="C70" s="21">
         <v>1</v>
       </c>
@@ -5749,7 +5750,7 @@
     </row>
     <row r="71" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="22"/>
-      <c r="B71" s="146">
+      <c r="B71" s="119">
         <v>2</v>
       </c>
       <c r="C71" s="48">
@@ -5813,7 +5814,7 @@
     </row>
     <row r="72" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="22"/>
-      <c r="B72" s="147"/>
+      <c r="B72" s="120"/>
       <c r="C72" s="36">
         <v>2</v>
       </c>
@@ -5872,7 +5873,7 @@
     </row>
     <row r="73" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
-      <c r="B73" s="148"/>
+      <c r="B73" s="121"/>
       <c r="C73" s="21">
         <v>2</v>
       </c>
@@ -5929,7 +5930,7 @@
     </row>
     <row r="74" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="22"/>
-      <c r="B74" s="146">
+      <c r="B74" s="119">
         <v>3</v>
       </c>
       <c r="C74" s="48">
@@ -5993,7 +5994,7 @@
     </row>
     <row r="75" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
-      <c r="B75" s="147"/>
+      <c r="B75" s="120"/>
       <c r="C75" s="36">
         <v>3</v>
       </c>
@@ -6052,7 +6053,7 @@
     </row>
     <row r="76" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
-      <c r="B76" s="148"/>
+      <c r="B76" s="121"/>
       <c r="C76" s="21">
         <v>3</v>
       </c>
@@ -6109,7 +6110,7 @@
     </row>
     <row r="77" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="146">
+      <c r="B77" s="119">
         <v>4</v>
       </c>
       <c r="C77" s="48">
@@ -6173,7 +6174,7 @@
     </row>
     <row r="78" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="147"/>
+      <c r="B78" s="120"/>
       <c r="C78" s="36">
         <v>4</v>
       </c>
@@ -6232,7 +6233,7 @@
     </row>
     <row r="79" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
-      <c r="B79" s="148"/>
+      <c r="B79" s="121"/>
       <c r="C79" s="21">
         <v>4</v>
       </c>
@@ -6289,7 +6290,7 @@
     </row>
     <row r="80" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="22"/>
-      <c r="B80" s="146">
+      <c r="B80" s="119">
         <v>5</v>
       </c>
       <c r="C80" s="48">
@@ -6353,7 +6354,7 @@
     </row>
     <row r="81" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
-      <c r="B81" s="147"/>
+      <c r="B81" s="120"/>
       <c r="C81" s="36">
         <v>5</v>
       </c>
@@ -6412,7 +6413,7 @@
     </row>
     <row r="82" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
-      <c r="B82" s="148"/>
+      <c r="B82" s="121"/>
       <c r="C82" s="21">
         <v>5</v>
       </c>
@@ -6469,40 +6470,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="Q44:S47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="J44:J47"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="I13:M13"/>
@@ -6519,6 +6486,40 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="I11:M11"/>
     <mergeCell ref="I12:M12"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="Q44:S47"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <conditionalFormatting sqref="Q18:S41 Q49:S63 Q68:S82">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -6526,32 +6527,32 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Categories</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:M8" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Open_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:M9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:M9" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Women_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Other_Divisions</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="F43 F65"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I43:I46 H43 H65:I65 I15">
+    <dataValidation allowBlank="1" sqref="F43 F65" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I43:I46 H43 H65:I65 I15" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B65 B15 B43">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B65 B15 B43" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>All_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E49:E63 E18:E41 E68:E82">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E49:E63 E18:E41 E68:E82" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>players_sorted2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>Pools</formula1>
     </dataValidation>
   </dataValidations>
